--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayu0\OneDrive\ドキュメント\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6C31A-9EF4-4A7B-B760-A948B1612D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="シート1" sheetId="1" r:id="rId4"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -37,17 +46,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -56,36 +73,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -275,23 +299,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="23.13"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -311,109 +340,111 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>2.0221101E7</v>
+        <v>20221101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="F2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2.0221102E7</v>
+        <v>20221102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>1501.0</v>
+        <v>1501</v>
       </c>
       <c r="F3" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2.0221103E7</v>
+        <v>20221103</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>1502.0</v>
+        <v>1502</v>
       </c>
       <c r="F4" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2.0221104E7</v>
+        <v>20221104</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>1503.0</v>
+        <v>1503</v>
       </c>
       <c r="F5" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>2.0221105E7</v>
+        <v>20221105</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>1504.0</v>
+        <v>1504</v>
       </c>
       <c r="F6" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>2.0221106E7</v>
+        <v>20221106</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>1505.0</v>
+        <v>1505</v>
       </c>
       <c r="F7" s="1">
-        <v>6.0</v>
+        <v>54300</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayu0\OneDrive\ドキュメント\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6C31A-9EF4-4A7B-B760-A948B1612D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9497D-BA0C-4DDF-A8CA-4A31918CC925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8910" yWindow="1965" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>本支店コード</t>
   </si>
@@ -309,10 +309,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -320,125 +320,130 @@
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20221101</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20221102</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1501</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2500</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>20221103</v>
+        <v>20221101</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="F4" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>20221104</v>
+        <v>20221102</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F5" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>20221105</v>
+        <v>20221103</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="F6" s="1">
-        <v>10000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20221104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1503</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20221105</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1504</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="1">
         <v>20221106</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
         <v>1505</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F9" s="1">
         <v>54300</v>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayu0\OneDrive\ドキュメント\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9497D-BA0C-4DDF-A8CA-4A31918CC925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7ABD3B-A047-4F22-9747-F5BF2E74AEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="1965" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9075" yWindow="3195" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>本支店コード</t>
   </si>
@@ -309,10 +309,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -320,130 +320,125 @@
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20221101</v>
+      </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20221102</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1501</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B4" s="1">
+        <v>20221103</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1502</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B5" s="1">
+        <v>20221104</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1503</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B6" s="1">
+        <v>20221105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1504</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20221101</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>20221102</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1501</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>20221103</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1502</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
       <c r="B7" s="1">
-        <v>20221104</v>
+        <v>20221106</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="F7" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20221105</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1504</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>20221106</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1505</v>
-      </c>
-      <c r="F9" s="1">
         <v>54300</v>
       </c>
     </row>
